--- a/Dev_base_donnees/1B0_-_07_-_Laboratoire_03_-_Normalisation_-_Bail_Maison.xlsx
+++ b/Dev_base_donnees/1B0_-_07_-_Laboratoire_03_-_Normalisation_-_Bail_Maison.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="35">
   <si>
     <t xml:space="preserve">NUM_CLIENT</t>
   </si>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">ADRESSE</t>
   </si>
   <si>
-    <t xml:space="preserve">DEBUT BAIL</t>
+    <t xml:space="preserve">DÉBUT BAIL</t>
   </si>
   <si>
     <t xml:space="preserve">FIN BAIL</t>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">MONTANT</t>
   </si>
   <si>
-    <t xml:space="preserve">PROPRIETAIRE</t>
+    <t xml:space="preserve">PROPRIÉTAIRE</t>
   </si>
   <si>
     <t xml:space="preserve">CL76</t>
@@ -121,7 +121,10 @@
     <t xml:space="preserve">Nom</t>
   </si>
   <si>
-    <t xml:space="preserve">PROPRIÉTAIRE</t>
+    <t xml:space="preserve">3NF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCNF</t>
   </si>
 </sst>
 </file>
@@ -133,7 +136,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -158,6 +161,15 @@
     </font>
     <font>
       <b val="true"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -175,7 +187,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,8 +196,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF729FCF"/>
-        <bgColor rgb="FF969696"/>
+        <fgColor rgb="FFFFFF6D"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -200,13 +212,44 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF81ACA6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81ACA6"/>
+        <bgColor rgb="FF729FCF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8E86AE"/>
+        <bgColor rgb="FF729FCF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA1467E"/>
+        <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -220,21 +263,7 @@
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -263,7 +292,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -272,39 +301,39 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -316,79 +345,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -396,7 +397,75 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -426,9 +495,9 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF81ACA6"/>
       <rgbColor rgb="FF729FCF"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFA1467E"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
@@ -446,7 +515,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFFF6D"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -458,7 +527,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF8E86AE"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -477,48 +546,48 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ29"/>
+  <dimension ref="A1:AMJ59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E60" activeCellId="0" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="60.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.32"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -576,14 +645,14 @@
       <c r="BG1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="2" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -598,7 +667,7 @@
       <c r="G2" s="10" t="n">
         <v>350</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="8" t="s">
@@ -610,44 +679,44 @@
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
     </row>
-    <row r="3" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="13" t="s">
+    <row r="3" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="15" t="n">
+      <c r="E3" s="9" t="n">
         <v>44440</v>
       </c>
-      <c r="F3" s="15" t="n">
+      <c r="F3" s="9" t="n">
         <v>44440</v>
       </c>
-      <c r="G3" s="16" t="n">
+      <c r="G3" s="10" t="n">
         <v>450</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
     </row>
-    <row r="4" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+    <row r="4" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -662,7 +731,7 @@
       <c r="G4" s="10" t="n">
         <v>350</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="8" t="s">
@@ -674,68 +743,68 @@
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
     </row>
-    <row r="5" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="18" t="s">
+    <row r="5" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="20" t="n">
+      <c r="E5" s="9" t="n">
         <v>44479</v>
       </c>
-      <c r="F5" s="20" t="n">
+      <c r="F5" s="9" t="n">
         <v>44531</v>
       </c>
-      <c r="G5" s="21" t="n">
+      <c r="G5" s="10" t="n">
         <v>375</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="13" t="s">
+    <row r="6" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="15" t="n">
+      <c r="E6" s="9" t="n">
         <v>44510</v>
       </c>
-      <c r="F6" s="15" t="n">
+      <c r="F6" s="9" t="n">
         <v>44561</v>
       </c>
-      <c r="G6" s="16" t="n">
+      <c r="G6" s="10" t="n">
         <v>450</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
+    <row r="7" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="12"/>
@@ -752,32 +821,32 @@
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="s">
+    <row r="8" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="17" t="s">
         <v>1</v>
       </c>
       <c r="J8" s="12"/>
@@ -786,32 +855,32 @@
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28" t="s">
+    <row r="9" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="31" t="n">
+      <c r="G9" s="24" t="n">
         <v>350</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="22" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="12"/>
@@ -820,32 +889,32 @@
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
     </row>
-    <row r="10" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="28" t="s">
+    <row r="10" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="31" t="n">
+      <c r="G10" s="24" t="n">
         <v>450</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="22" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="12"/>
@@ -854,32 +923,32 @@
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
     </row>
-    <row r="11" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="28" t="s">
+    <row r="11" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="31" t="n">
+      <c r="G11" s="24" t="n">
         <v>350</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="22" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="12"/>
@@ -888,32 +957,32 @@
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
     </row>
-    <row r="12" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28" t="s">
+    <row r="12" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="31" t="n">
+      <c r="G12" s="24" t="n">
         <v>375</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="22" t="s">
         <v>17</v>
       </c>
       <c r="J12" s="12"/>
@@ -922,32 +991,32 @@
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
     </row>
-    <row r="13" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="s">
+    <row r="13" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="31" t="n">
+      <c r="G13" s="24" t="n">
         <v>450</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="22" t="s">
         <v>17</v>
       </c>
       <c r="J13" s="12"/>
@@ -956,17 +1025,17 @@
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
     </row>
-    <row r="14" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="s">
+    <row r="14" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="12"/>
-      <c r="C14" s="32"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="32"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
@@ -974,32 +1043,29 @@
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
     </row>
-    <row r="15" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="33" t="s">
+    <row r="15" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="26" t="s">
+      <c r="D15" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="E15" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="F15" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="G15" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="H15" s="27" t="s">
         <v>1</v>
       </c>
       <c r="J15" s="12"/>
@@ -1008,32 +1074,29 @@
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="28" t="s">
+    <row r="16" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="30" t="s">
+      <c r="D16" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="E16" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="31" t="n">
+      <c r="F16" s="24" t="n">
         <v>350</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="G16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="H16" s="22" t="s">
         <v>13</v>
       </c>
       <c r="J16" s="12"/>
@@ -1042,32 +1105,29 @@
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
     </row>
-    <row r="17" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28" t="s">
+    <row r="17" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="30" t="s">
+      <c r="D17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="E17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="31" t="n">
+      <c r="F17" s="24" t="n">
         <v>450</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="G17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="H17" s="22" t="s">
         <v>17</v>
       </c>
       <c r="J17" s="12"/>
@@ -1076,32 +1136,29 @@
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
     </row>
-    <row r="18" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="28" t="s">
+    <row r="18" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="30" t="s">
+      <c r="D18" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="E18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="31" t="n">
+      <c r="F18" s="24" t="n">
         <v>350</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="G18" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="H18" s="22" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="12"/>
@@ -1110,32 +1167,29 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
     </row>
-    <row r="19" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28" t="s">
+    <row r="19" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="30" t="s">
+      <c r="D19" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="E19" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="31" t="n">
+      <c r="F19" s="24" t="n">
         <v>375</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="G19" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="H19" s="22" t="s">
         <v>17</v>
       </c>
       <c r="J19" s="12"/>
@@ -1144,32 +1198,29 @@
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
     </row>
-    <row r="20" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="28" t="s">
+    <row r="20" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="30" t="s">
+      <c r="D20" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="E20" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="31" t="n">
+      <c r="F20" s="24" t="n">
         <v>450</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="G20" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="H20" s="22" t="s">
         <v>17</v>
       </c>
       <c r="J20" s="12"/>
@@ -1178,7 +1229,7 @@
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
     </row>
-    <row r="21" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1194,12 +1245,12 @@
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
     </row>
-    <row r="22" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="33" t="s">
+    <row r="22" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>33</v>
+      <c r="B22" s="27" t="s">
+        <v>3</v>
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
@@ -1207,12 +1258,12 @@
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
     </row>
-    <row r="23" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="28" t="s">
+    <row r="23" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>12</v>
+      <c r="B23" s="22" t="s">
+        <v>11</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
@@ -1220,12 +1271,12 @@
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
     </row>
-    <row r="24" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="28" t="s">
+    <row r="24" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>16</v>
+      <c r="B24" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
@@ -1233,12 +1284,12 @@
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
     </row>
-    <row r="25" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="28" t="s">
+    <row r="25" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="29" t="s">
-        <v>12</v>
+      <c r="B25" s="22" t="s">
+        <v>11</v>
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
@@ -1246,12 +1297,12 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="28" t="s">
+    <row r="26" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="29" t="s">
-        <v>16</v>
+      <c r="B26" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
@@ -1259,12 +1310,12 @@
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
     </row>
-    <row r="27" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="28" t="s">
+    <row r="27" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="29" t="s">
-        <v>16</v>
+      <c r="B27" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
@@ -1272,7 +1323,7 @@
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -1288,7 +1339,7 @@
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -1304,6 +1355,408 @@
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
     </row>
+    <row r="30" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="24" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="24" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="24" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="24" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="24" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="24" t="n">
+        <v>350</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="24" t="n">
+        <v>450</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="24" t="n">
+        <v>350</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="24" t="n">
+        <v>375</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="24" t="n">
+        <v>450</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
